--- a/excel/gz.tpl.new.xlsx
+++ b/excel/gz.tpl.new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\electron-app\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,6 +20,8 @@
     <sheet name="现金流量表" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_code">汇总总结!$B$1</definedName>
+    <definedName name="_name">汇总总结!$A$1</definedName>
     <definedName name="bsa_content_1">资产负债表!$C$2:$C$25,资产负债表!$C$28:$C$45</definedName>
     <definedName name="high">汇总总结!$H$13</definedName>
     <definedName name="mid">汇总总结!$I$14</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6925" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6931" uniqueCount="416">
   <si>
     <t>项目</t>
   </si>
@@ -1294,6 +1296,30 @@
     <t>负债和所有者权益(或股东权益)总计</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三一重工</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>初值</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>末值</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增长</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合增长</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1301,16 +1327,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="11">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0\.00,,&quot;亿&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="0\!.00,,&quot;亿&quot;"/>
-    <numFmt numFmtId="184" formatCode="0\!.00,,&quot;万&quot;"/>
-    <numFmt numFmtId="185" formatCode="0&quot;.&quot;00,,&quot;亿&quot;"/>
-    <numFmt numFmtId="186" formatCode="0&quot;.&quot;00,,&quot;万&quot;"/>
-    <numFmt numFmtId="187" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0\.00,,&quot;亿&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0\!.00,,&quot;亿&quot;"/>
+    <numFmt numFmtId="183" formatCode="0\!.00,,&quot;万&quot;"/>
+    <numFmt numFmtId="184" formatCode="0&quot;.&quot;00,,&quot;亿&quot;"/>
+    <numFmt numFmtId="185" formatCode="0&quot;.&quot;00,,&quot;万&quot;"/>
+    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1737,7 +1763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,10 +1791,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1777,10 +1803,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
@@ -1792,7 +1818,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1807,7 +1833,7 @@
     <xf numFmtId="10" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1816,7 +1842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1825,7 +1851,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1834,7 +1860,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1849,13 +1875,13 @@
     <xf numFmtId="10" fontId="12" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="12" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1867,10 +1893,10 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1879,8 +1905,8 @@
     <xf numFmtId="10" fontId="10" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1890,13 +1916,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1932,10 +1958,10 @@
     <xf numFmtId="10" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1944,13 +1970,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1983,17 +2009,41 @@
     <xf numFmtId="9" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2009,29 +2059,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2066,7 +2104,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0.00_ "/>
+      <numFmt numFmtId="177" formatCode="0.00_ "/>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="4"/>
@@ -2348,7 +2386,7 @@
   <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2360,22 +2398,25 @@
     <col min="12" max="12" width="13.25" customWidth="1"/>
     <col min="13" max="13" width="12.75"/>
     <col min="14" max="15" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.875" customWidth="1"/>
     <col min="18" max="18" width="13.625" customWidth="1"/>
     <col min="19" max="24" width="12.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="str">
-        <f>"近"&amp;J1&amp;"年历史统计"</f>
-        <v>近10年历史统计</v>
-      </c>
-      <c r="B1" s="55"/>
+      <c r="A1" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="55">
+        <v>600031</v>
+      </c>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="F1" s="55" t="s">
+        <v>410</v>
+      </c>
       <c r="G1" s="55">
         <v>1</v>
       </c>
@@ -2388,13 +2429,13 @@
       <c r="J1" s="2">
         <v>10</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
       <c r="S1" s="5">
         <v>0.15</v>
       </c>
@@ -2531,12 +2572,20 @@
       <c r="I4" s="64"/>
       <c r="J4" s="77"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>413</v>
+      </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="O4" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q4" s="16"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
@@ -2556,7 +2605,7 @@
       <c r="AH4" s="14"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="94" t="s">
         <v>409</v>
       </c>
       <c r="B5" s="66">
@@ -2572,11 +2621,23 @@
       <c r="I5" s="64"/>
       <c r="J5" s="78"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="L5" s="102">
+        <v>1</v>
+      </c>
+      <c r="M5" s="102">
+        <v>2</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1</v>
+      </c>
+      <c r="O5" s="16">
+        <f>(M5-L5)/ABS(L5)</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="16">
+        <f>POWER(M5/L5,1/2)-1</f>
+        <v>0.41421356237309515</v>
+      </c>
       <c r="Q5" s="16"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -2595,7 +2656,7 @@
       <c r="AH5" s="14"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="94" t="s">
         <v>407</v>
       </c>
       <c r="B6" s="66">
@@ -2610,6 +2671,24 @@
       <c r="H6" s="63"/>
       <c r="I6" s="64"/>
       <c r="J6" s="79"/>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="16" t="e">
+        <f t="shared" ref="O6:O10" si="0">(M6-L6)/ABS(L6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="104">
+        <f>POWER(1,1/2)-1</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16"/>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
@@ -2659,12 +2738,28 @@
         <f ca="1">MIN(C7:F7)</f>
         <v>0.10051236867875257</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="K7" s="5">
+        <f>POWER(B7/L24,1/10)-1</f>
+        <v>0.10051236867875257</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" ref="P6:P10" si="1">POWER(M7/L7,1/2)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
@@ -2679,32 +2774,45 @@
         <v>0.24196405067561533</v>
       </c>
       <c r="D8" s="65">
-        <f t="shared" ref="D8:F8" ca="1" si="0">POWER($B$26/OFFSET($A$26,0,H$1+1),1/H$1)-1</f>
+        <f t="shared" ref="D8:F8" ca="1" si="2">POWER($B$26/OFFSET($A$26,0,H$1+1),1/H$1)-1</f>
         <v>0.3730529503248543</v>
       </c>
       <c r="E8" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.3157244732593576</v>
       </c>
       <c r="F8" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.10899962772169136</v>
       </c>
       <c r="G8" s="61">
-        <f t="shared" ref="G8:G10" ca="1" si="1">AVERAGE(C8:F8)</f>
+        <f t="shared" ref="G8:G10" ca="1" si="3">AVERAGE(C8:F8)</f>
         <v>0.25993527549537965</v>
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="74">
-        <f t="shared" ref="I8:I10" ca="1" si="2">MIN(C8:F8)</f>
+        <f t="shared" ref="I8:I10" ca="1" si="4">MIN(C8:F8)</f>
         <v>0.10899962772169136</v>
       </c>
       <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>-2</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="P8" s="16" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q8" s="16"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
@@ -2717,7 +2825,7 @@
       <c r="A9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="98" t="str">
+      <c r="B9" s="93" t="str">
         <f>VLOOKUP(A9,20:38,2,0)</f>
         <v>1.47</v>
       </c>
@@ -2726,26 +2834,44 @@
         <v>0.31249999999999978</v>
       </c>
       <c r="D9" s="65">
-        <f t="shared" ref="D9:F9" ca="1" si="3">POWER($B$30/OFFSET($A$30,0,H$1+1),1/H$1)-1</f>
+        <f t="shared" ref="D9:F9" ca="1" si="5">POWER($B$30/OFFSET($A$30,0,H$1+1),1/H$1)-1</f>
         <v>0.82965285501148567</v>
       </c>
       <c r="E9" s="65">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7130854165656051</v>
+      </c>
+      <c r="F9" s="65">
+        <f ca="1">POWER($B$30/OFFSET($A$30,0,J$1+1),1/J$1)-1</f>
+        <v>5.2648718921124882E-2</v>
+      </c>
+      <c r="G9" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7130854165656051</v>
-      </c>
-      <c r="F9" s="65">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2648718921124882E-2</v>
-      </c>
-      <c r="G9" s="61">
-        <f t="shared" ca="1" si="1"/>
         <v>0.72697174762455385</v>
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="74">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5.2648718921124882E-2</v>
       </c>
+      <c r="L9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="14">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P9" s="16" t="e">
+        <f>POWER(M9/L9,1/2)-1</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q9" s="16"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="5"/>
@@ -2767,26 +2893,41 @@
         <v>0.1672442398850571</v>
       </c>
       <c r="D10" s="65">
-        <f t="shared" ref="D10:F10" ca="1" si="4">POWER($B$28/OFFSET($A$28,0,H$1+1),1/H$1)-1</f>
+        <f t="shared" ref="D10:F10" ca="1" si="6">POWER($B$28/OFFSET($A$28,0,H$1+1),1/H$1)-1</f>
         <v>0.17020933828185747</v>
       </c>
       <c r="E10" s="65">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.75980000161914973</v>
       </c>
       <c r="F10" s="65">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.10988580075732335</v>
+      </c>
+      <c r="G10" s="61">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30178484513584691</v>
+      </c>
+      <c r="H10" s="69"/>
+      <c r="I10" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>0.10988580075732335</v>
       </c>
-      <c r="G10" s="61">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30178484513584691</v>
-      </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="74">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.10988580075732335</v>
-      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <f>(M10-L10)/ABS(L10)</f>
+        <v>-1</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="16"/>
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
       <c r="W10" s="5"/>
@@ -2805,6 +2946,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="P11" s="16"/>
       <c r="S11" s="14"/>
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
@@ -2841,8 +2985,8 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
       <c r="U12" s="26"/>
       <c r="V12" s="26"/>
       <c r="W12" s="26"/>
@@ -2880,8 +3024,8 @@
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
       <c r="N13" s="13"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
@@ -2899,15 +3043,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <f ca="1">B12*100*$B$9</f>
+        <f ca="1">IF(OR(B12&lt;0, B9&lt;0),"不能评估",B12*100*$B$9)</f>
         <v>24.584903263103392</v>
       </c>
       <c r="C14" s="9">
-        <f ca="1">C12*100*$B$9</f>
+        <f t="shared" ref="C14:D14" ca="1" si="7">IF(OR(C12&lt;0, C9&lt;0),0,C12*100*$B$9)</f>
         <v>16.153212711326532</v>
       </c>
       <c r="D14" s="9">
-        <f ca="1">D12*100*$B$9</f>
+        <f t="shared" ca="1" si="7"/>
         <v>7.7393616814053576</v>
       </c>
       <c r="E14" s="83"/>
@@ -2921,6 +3065,8 @@
         <f ca="1">AVERAGE(H13:H15)</f>
         <v>19.198834436452763</v>
       </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
       <c r="AB14" s="23"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.15">
@@ -2928,15 +3074,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="9">
-        <f ca="1">$B$9*(8.5+2*B12*100)/POWER(1+B13,5)</f>
+        <f ca="1">IF(OR(B12&lt;0, B9&lt;0),"不能评估",$B$9*(8.5+2*B12*100)/POWER(1+B13,5))</f>
         <v>30.658307191500167</v>
       </c>
       <c r="C15" s="9">
-        <f ca="1">$B$9*(8.5+2*C12*100)/POWER(1+C13,5)</f>
+        <f t="shared" ref="C15:D15" ca="1" si="8">IF(OR(C12&lt;0, C9&lt;0),"不能评估",$B$9*(8.5+2*C12*100)/POWER(1+C13,5))</f>
         <v>25.421531959287343</v>
       </c>
       <c r="D15" s="9">
-        <f ca="1">$B$9*(8.5+2*D12*100)/POWER(1+D13,5)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>15.873041890501606</v>
       </c>
       <c r="E15" s="83"/>
@@ -2952,6 +3098,8 @@
         <v>7.7393616814053576</v>
       </c>
       <c r="I15" s="12"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
       <c r="AB15" s="23"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.15">
@@ -2967,41 +3115,41 @@
       <c r="AB16" s="23"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A17" s="94"/>
-      <c r="B17" s="95">
+      <c r="A17" s="89"/>
+      <c r="B17" s="90">
         <v>2</v>
       </c>
-      <c r="C17" s="95">
+      <c r="C17" s="90">
         <v>6</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D17" s="90">
         <v>10</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="90">
         <v>14</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="90">
         <v>18</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="90">
         <v>22</v>
       </c>
-      <c r="H17" s="95">
+      <c r="H17" s="90">
         <v>26</v>
       </c>
-      <c r="I17" s="95">
+      <c r="I17" s="90">
         <v>30</v>
       </c>
-      <c r="J17" s="95">
+      <c r="J17" s="90">
         <v>34</v>
       </c>
-      <c r="K17" s="95">
+      <c r="K17" s="90">
         <v>38</v>
       </c>
-      <c r="L17" s="95">
+      <c r="L17" s="90">
         <v>42</v>
       </c>
-      <c r="M17" s="96">
+      <c r="M17" s="91">
         <v>46</v>
       </c>
       <c r="AB17" s="23"/>
@@ -3116,43 +3264,43 @@
         <v>0.23193253218859106</v>
       </c>
       <c r="C20" s="34">
-        <f t="shared" ref="C20:L20" si="5">C24/C23</f>
+        <f>C24/C23</f>
         <v>0.21662629087199972</v>
       </c>
       <c r="D20" s="34">
-        <f t="shared" si="5"/>
+        <f>D24/D23</f>
         <v>0.16175343463181896</v>
       </c>
       <c r="E20" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C20:L20" si="9">E24/E23</f>
         <v>7.5240556556648241E-2</v>
       </c>
       <c r="F20" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.6092082679162796E-3</v>
       </c>
       <c r="G20" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.5455220243452001E-3</v>
       </c>
       <c r="H20" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.3594760145208151E-2</v>
       </c>
       <c r="I20" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.12512404552623957</v>
       </c>
       <c r="J20" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.25303105941899345</v>
       </c>
       <c r="K20" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.41900886633569207</v>
       </c>
       <c r="L20" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.4378660472985082</v>
       </c>
       <c r="M20" s="20">
@@ -3174,43 +3322,43 @@
         <v>0.10617316088497047</v>
       </c>
       <c r="C21" s="36">
-        <f t="shared" ref="C21:L21" si="6">C24/C22</f>
+        <f t="shared" ref="C21:L21" si="10">C24/C22</f>
         <v>0.10666647010595001</v>
       </c>
       <c r="D21" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.2630397521671677E-2</v>
       </c>
       <c r="E21" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.2716899847306392E-2</v>
       </c>
       <c r="F21" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.4679864591793293E-3</v>
       </c>
       <c r="G21" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0003672886209135E-3</v>
       </c>
       <c r="H21" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4889399361033814E-2</v>
       </c>
       <c r="I21" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.6700998202786566E-2</v>
       </c>
       <c r="J21" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.3104874885530597E-2</v>
       </c>
       <c r="K21" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.15144128790246034</v>
       </c>
       <c r="L21" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.16346848322103646</v>
       </c>
       <c r="M21" s="20">
@@ -3225,7 +3373,7 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="94" t="s">
         <v>409</v>
       </c>
       <c r="B22" s="39">
@@ -3275,7 +3423,7 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="95" t="s">
         <v>407</v>
       </c>
       <c r="B23" s="39">
@@ -3379,47 +3527,47 @@
         <v>131</v>
       </c>
       <c r="B25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,B$17,0)-VLOOKUP($A24,利润表!1:1000000,C$17,0))/VLOOKUP($A24,利润表!1:1000000,C$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,B$17,0)-VLOOKUP($A24,利润表!1:1000000,C$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,C$17,0))</f>
         <v>0.35373020716167458</v>
       </c>
       <c r="C25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,C$17,0)-VLOOKUP($A24,利润表!1:1000000,D$17,0))/VLOOKUP($A24,利润表!1:1000000,D$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,C$17,0)-VLOOKUP($A24,利润表!1:1000000,D$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,D$17,0))</f>
         <v>0.8570754484161065</v>
       </c>
       <c r="D25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,D$17,0)-VLOOKUP($A24,利润表!1:1000000,E$17,0))/VLOOKUP($A24,利润表!1:1000000,E$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,D$17,0)-VLOOKUP($A24,利润表!1:1000000,E$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,E$17,0))</f>
         <v>1.6126416563933006</v>
       </c>
       <c r="E25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,E$17,0)-VLOOKUP($A24,利润表!1:1000000,F$17,0))/VLOOKUP($A24,利润表!1:1000000,F$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,E$17,0)-VLOOKUP($A24,利润表!1:1000000,F$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,F$17,0))</f>
         <v>8.3111281878872294</v>
       </c>
       <c r="F25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,F$17,0)-VLOOKUP($A24,利润表!1:1000000,G$17,0))/VLOOKUP($A24,利润表!1:1000000,G$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,F$17,0)-VLOOKUP($A24,利润表!1:1000000,G$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,G$17,0))</f>
         <v>2.457489206243773</v>
       </c>
       <c r="G25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,G$17,0)-VLOOKUP($A24,利润表!1:1000000,H$17,0))/VLOOKUP($A24,利润表!1:1000000,H$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,G$17,0)-VLOOKUP($A24,利润表!1:1000000,H$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,H$17,0))</f>
         <v>-0.96387219082586417</v>
       </c>
       <c r="H25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,H$17,0)-VLOOKUP($A24,利润表!1:1000000,I$17,0))/VLOOKUP($A24,利润表!1:1000000,I$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,H$17,0)-VLOOKUP($A24,利润表!1:1000000,I$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,I$17,0))</f>
         <v>-0.47351897006986648</v>
       </c>
       <c r="I25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,I$17,0)-VLOOKUP($A24,利润表!1:1000000,J$17,0))/VLOOKUP($A24,利润表!1:1000000,J$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,I$17,0)-VLOOKUP($A24,利润表!1:1000000,J$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,J$17,0))</f>
         <v>-0.49008775984499897</v>
       </c>
       <c r="J25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,J$17,0)-VLOOKUP($A24,利润表!1:1000000,K$17,0))/VLOOKUP($A24,利润表!1:1000000,K$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,J$17,0)-VLOOKUP($A24,利润表!1:1000000,K$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,K$17,0))</f>
         <v>-0.24639308268084956</v>
       </c>
       <c r="K25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,K$17,0)-VLOOKUP($A24,利润表!1:1000000,L$17,0))/VLOOKUP($A24,利润表!1:1000000,L$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,K$17,0)-VLOOKUP($A24,利润表!1:1000000,L$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,L$17,0))</f>
         <v>0.68608691737201422</v>
       </c>
       <c r="L25" s="34">
-        <f>(VLOOKUP($A24,利润表!1:1000000,L$17,0)-VLOOKUP($A24,利润表!1:1000000,M$17,0))/VLOOKUP($A24,利润表!1:1000000,M$17,0)</f>
+        <f>(VLOOKUP($A24,利润表!1:1000000,L$17,0)-VLOOKUP($A24,利润表!1:1000000,M$17,0))/ABS(VLOOKUP($A24,利润表!1:1000000,M$17,0))</f>
         <v>1.640755292070406</v>
       </c>
       <c r="M25" s="20">
@@ -3440,47 +3588,47 @@
       <c r="A26" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="93">
+      <c r="B26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>72892050000</v>
       </c>
-      <c r="C26" s="93">
+      <c r="C26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>58690950000</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>41077480000</v>
       </c>
-      <c r="E26" s="93">
+      <c r="E26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>28159070000</v>
       </c>
-      <c r="F26" s="93">
+      <c r="F26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>16489660000</v>
       </c>
-      <c r="G26" s="93">
+      <c r="G26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>18486530000</v>
       </c>
-      <c r="H26" s="93">
+      <c r="H26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>26738610000</v>
       </c>
-      <c r="I26" s="93">
+      <c r="I26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>29901730000</v>
       </c>
-      <c r="J26" s="93">
+      <c r="J26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>40699470000</v>
       </c>
-      <c r="K26" s="93">
+      <c r="K26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>41303140000</v>
       </c>
-      <c r="L26" s="93">
+      <c r="L26" s="88">
         <f>VLOOKUP("营业收入",利润表!1:1000000,2+4*(COLUMN()-2),0)</f>
         <v>25903960000</v>
       </c>
@@ -3491,47 +3639,47 @@
         <v>132</v>
       </c>
       <c r="B27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,B$17,0)-VLOOKUP($A26,利润表!3:1000002,C$17,0))/VLOOKUP($A26,利润表!3:1000002,C$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,B$17,0)-VLOOKUP($A26,利润表!3:1000002,C$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,C$17,0))</f>
         <v>0.24196405067561524</v>
       </c>
       <c r="C27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,C$17,0)-VLOOKUP($A26,利润表!3:1000002,D$17,0))/VLOOKUP($A26,利润表!3:1000002,D$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,C$17,0)-VLOOKUP($A26,利润表!3:1000002,D$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,D$17,0))</f>
         <v>0.42878652731374955</v>
       </c>
       <c r="D27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,D$17,0)-VLOOKUP($A26,利润表!3:1000002,E$17,0))/VLOOKUP($A26,利润表!3:1000002,E$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,D$17,0)-VLOOKUP($A26,利润表!3:1000002,E$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,E$17,0))</f>
         <v>0.45876550610513772</v>
       </c>
       <c r="E27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,E$17,0)-VLOOKUP($A26,利润表!3:1000002,F$17,0))/VLOOKUP($A26,利润表!3:1000002,F$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,E$17,0)-VLOOKUP($A26,利润表!3:1000002,F$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,F$17,0))</f>
         <v>0.70768044944528874</v>
       </c>
       <c r="F27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,F$17,0)-VLOOKUP($A26,利润表!3:1000002,G$17,0))/VLOOKUP($A26,利润表!3:1000002,G$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,F$17,0)-VLOOKUP($A26,利润表!3:1000002,G$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,G$17,0))</f>
         <v>-0.10801756738555045</v>
       </c>
       <c r="G27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,G$17,0)-VLOOKUP($A26,利润表!3:1000002,H$17,0))/VLOOKUP($A26,利润表!3:1000002,H$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,G$17,0)-VLOOKUP($A26,利润表!3:1000002,H$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,H$17,0))</f>
         <v>-0.30862038079017573</v>
       </c>
       <c r="H27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,H$17,0)-VLOOKUP($A26,利润表!3:1000002,I$17,0))/VLOOKUP($A26,利润表!3:1000002,I$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,H$17,0)-VLOOKUP($A26,利润表!3:1000002,I$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,I$17,0))</f>
         <v>-0.10578384595138809</v>
       </c>
       <c r="I27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,I$17,0)-VLOOKUP($A26,利润表!3:1000002,J$17,0))/VLOOKUP($A26,利润表!3:1000002,J$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,I$17,0)-VLOOKUP($A26,利润表!3:1000002,J$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,J$17,0))</f>
         <v>-0.26530419192190957</v>
       </c>
       <c r="J27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,J$17,0)-VLOOKUP($A26,利润表!3:1000002,K$17,0))/VLOOKUP($A26,利润表!3:1000002,K$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,J$17,0)-VLOOKUP($A26,利润表!3:1000002,K$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,K$17,0))</f>
         <v>-1.4615595811843846E-2</v>
       </c>
       <c r="K27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,K$17,0)-VLOOKUP($A26,利润表!3:1000002,L$17,0))/VLOOKUP($A26,利润表!3:1000002,L$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,K$17,0)-VLOOKUP($A26,利润表!3:1000002,L$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,L$17,0))</f>
         <v>0.59447204211248006</v>
       </c>
       <c r="L27" s="34">
-        <f>(VLOOKUP($A26,利润表!3:1000002,L$17,0)-VLOOKUP($A26,利润表!3:1000002,M$17,0))/VLOOKUP($A26,利润表!3:1000002,M$17,0)</f>
+        <f>(VLOOKUP($A26,利润表!3:1000002,L$17,0)-VLOOKUP($A26,利润表!3:1000002,M$17,0))/ABS(VLOOKUP($A26,利润表!3:1000002,M$17,0))</f>
         <v>1.0368351320005504</v>
       </c>
       <c r="M27" s="20">
@@ -3603,7 +3751,7 @@
         <v>132</v>
       </c>
       <c r="B29" s="34">
-        <f>(VLOOKUP($A$28,现金流量表!$1:1000,B$17,0)-VLOOKUP($A$28,现金流量表!$1:1000,C$17,0))/VLOOKUP($A$28,现金流量表!1:1000,C$17,0)</f>
+        <f>(VLOOKUP($A$28,现金流量表!$1:1000,B$17,0)-VLOOKUP($A$28,现金流量表!$1:1000,C$17,0))/ABS(VLOOKUP($A$28,现金流量表!1:1000,C$17,0))</f>
         <v>0.1672442398850571</v>
       </c>
       <c r="C29" s="34">
@@ -3664,47 +3812,47 @@
       <c r="A30" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="97" t="str">
+      <c r="B30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,B$17,0)</f>
         <v>1.47</v>
       </c>
-      <c r="C30" s="97" t="str">
+      <c r="C30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,C$17,0)</f>
         <v>1.12</v>
       </c>
-      <c r="D30" s="97" t="str">
+      <c r="D30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,D$17,0)</f>
         <v>0.63</v>
       </c>
-      <c r="E30" s="97" t="str">
+      <c r="E30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,E$17,0)</f>
         <v>0.24</v>
       </c>
-      <c r="F30" s="97" t="str">
+      <c r="F30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,F$17,0)</f>
         <v>0.02</v>
       </c>
-      <c r="G30" s="97" t="str">
+      <c r="G30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,G$17,0)</f>
         <v>0.01</v>
       </c>
-      <c r="H30" s="97" t="str">
+      <c r="H30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,H$17,0)</f>
         <v>0.21</v>
       </c>
-      <c r="I30" s="97" t="str">
+      <c r="I30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,I$17,0)</f>
         <v>0.39</v>
       </c>
-      <c r="J30" s="97" t="str">
+      <c r="J30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,J$17,0)</f>
         <v>0.77</v>
       </c>
-      <c r="K30" s="97" t="str">
+      <c r="K30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,K$17,0)</f>
         <v>1.01</v>
       </c>
-      <c r="L30" s="97" t="str">
+      <c r="L30" s="92" t="str">
         <f>VLOOKUP($A30,利润表!7:1000006,L$17,0)</f>
         <v>0.88</v>
       </c>
@@ -3715,47 +3863,47 @@
         <v>132</v>
       </c>
       <c r="B31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,B$17,0)-VLOOKUP($A30,利润表!7:1000006,C$17,0))/VLOOKUP($A30,利润表!7:1000006,C$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,B$17,0)-VLOOKUP($A30,利润表!7:1000006,C$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,C$17,0))</f>
         <v>0.31249999999999983</v>
       </c>
       <c r="C31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,C$17,0)-VLOOKUP($A30,利润表!7:1000006,D$17,0))/VLOOKUP($A30,利润表!7:1000006,D$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,C$17,0)-VLOOKUP($A30,利润表!7:1000006,D$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,D$17,0))</f>
         <v>0.7777777777777779</v>
       </c>
       <c r="D31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,D$17,0)-VLOOKUP($A30,利润表!7:1000006,E$17,0))/VLOOKUP($A30,利润表!7:1000006,E$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,D$17,0)-VLOOKUP($A30,利润表!7:1000006,E$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,E$17,0))</f>
         <v>1.6250000000000002</v>
       </c>
       <c r="E31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,E$17,0)-VLOOKUP($A30,利润表!7:1000006,F$17,0))/VLOOKUP($A30,利润表!7:1000006,F$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,E$17,0)-VLOOKUP($A30,利润表!7:1000006,F$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,F$17,0))</f>
         <v>11</v>
       </c>
       <c r="F31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,F$17,0)-VLOOKUP($A30,利润表!7:1000006,G$17,0))/VLOOKUP($A30,利润表!7:1000006,G$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,F$17,0)-VLOOKUP($A30,利润表!7:1000006,G$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,G$17,0))</f>
         <v>1</v>
       </c>
       <c r="G31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,G$17,0)-VLOOKUP($A30,利润表!7:1000006,H$17,0))/VLOOKUP($A30,利润表!7:1000006,H$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,G$17,0)-VLOOKUP($A30,利润表!7:1000006,H$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,H$17,0))</f>
         <v>-0.95238095238095233</v>
       </c>
       <c r="H31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,H$17,0)-VLOOKUP($A30,利润表!7:1000006,I$17,0))/VLOOKUP($A30,利润表!7:1000006,I$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,H$17,0)-VLOOKUP($A30,利润表!7:1000006,I$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,I$17,0))</f>
         <v>-0.46153846153846156</v>
       </c>
       <c r="I31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,I$17,0)-VLOOKUP($A30,利润表!7:1000006,J$17,0))/VLOOKUP($A30,利润表!7:1000006,J$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,I$17,0)-VLOOKUP($A30,利润表!7:1000006,J$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,J$17,0))</f>
         <v>-0.4935064935064935</v>
       </c>
       <c r="J31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,J$17,0)-VLOOKUP($A30,利润表!7:1000006,K$17,0))/VLOOKUP($A30,利润表!7:1000006,K$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,J$17,0)-VLOOKUP($A30,利润表!7:1000006,K$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,K$17,0))</f>
         <v>-0.23762376237623761</v>
       </c>
       <c r="K31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,K$17,0)-VLOOKUP($A30,利润表!7:1000006,L$17,0))/VLOOKUP($A30,利润表!7:1000006,L$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,K$17,0)-VLOOKUP($A30,利润表!7:1000006,L$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,L$17,0))</f>
         <v>0.14772727272727273</v>
       </c>
       <c r="L31" s="34">
-        <f>(VLOOKUP($A30,利润表!7:1000006,L$17,0)-VLOOKUP($A30,利润表!7:1000006,M$17,0))/VLOOKUP($A30,利润表!7:1000006,M$17,0)</f>
+        <f>(VLOOKUP($A30,利润表!7:1000006,L$17,0)-VLOOKUP($A30,利润表!7:1000006,M$17,0))/ABS(VLOOKUP($A30,利润表!7:1000006,M$17,0))</f>
         <v>-0.14563106796116507</v>
       </c>
       <c r="M31" s="20">
@@ -3831,43 +3979,43 @@
         <v>0.17468887210608017</v>
       </c>
       <c r="C33" s="34">
-        <f t="shared" ref="C33:L33" si="7">C24/C26</f>
+        <f t="shared" ref="C33:L33" si="11">C24/C26</f>
         <v>0.16026627614649278</v>
       </c>
       <c r="D33" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.12330478890136395</v>
       </c>
       <c r="E33" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.8847089055142807E-2</v>
       </c>
       <c r="F33" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.2626700611170879E-2</v>
       </c>
       <c r="G33" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.2575069523593666E-3</v>
       </c>
       <c r="H33" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.2339066989645309E-2</v>
       </c>
       <c r="I33" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.10588149916409519</v>
       </c>
       <c r="J33" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.15255702346983879</v>
       </c>
       <c r="K33" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.19947708576151837</v>
       </c>
       <c r="L33" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.18863833946624378</v>
       </c>
       <c r="Z33" s="5"/>
@@ -3949,43 +4097,43 @@
         <v>0.86577300852951644</v>
       </c>
       <c r="C36" s="45">
-        <f t="shared" ref="C36:L36" si="8">C28/C24</f>
+        <f t="shared" ref="C36:L36" si="12">C28/C24</f>
         <v>1.0040941168465838</v>
       </c>
       <c r="D36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.7239494180708976</v>
       </c>
       <c r="E36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.5485822754775183</v>
       </c>
       <c r="F36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9.7735939676288357</v>
       </c>
       <c r="G36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10.846562603786117</v>
       </c>
       <c r="H36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.6094573029528574</v>
       </c>
       <c r="I36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9.3858574117825416E-2</v>
       </c>
       <c r="J36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.13338562310456289</v>
       </c>
       <c r="K36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-0.18394276996199796</v>
       </c>
       <c r="L36" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.79537212881256036</v>
       </c>
       <c r="M36" s="14"/>
@@ -4066,28 +4214,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
